--- a/medicine/Psychotrope/Greco_(cépage)/Greco_(cépage).xlsx
+++ b/medicine/Psychotrope/Greco_(cépage)/Greco_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Greco_(c%C3%A9page)</t>
+          <t>Greco_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Greco est un cépage blanc italien cultivé dans le sud de l'Italie. Il a vraisemblablement été importé de Grèce au VIIe siècle AC. Les analyses ADN ont démontré qu'il était différent du Greco Bianco surtout cultivé en Calabre.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Greco_(c%C3%A9page)</t>
+          <t>Greco_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les synonymes du Greco sont : Aspirinio, Greco di tufo, Greco del Vesuvio, Greco del torre, Greco di Castelvenere.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Greco_(c%C3%A9page)</t>
+          <t>Greco_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Galet, Dictionnaire encyclopédique des cépages et de leurs synonymes, Libre &amp; Solidaire, 2018, 1200 p., p. 498.
  Portail de la vigne et du vin   Portail de la Campanie                    </t>
